--- a/Config/Excel/#界面配置.xlsx
+++ b/Config/Excel/#界面配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="界面配置" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>覆盖： 全屏且遮盖下层界面
+弹出： 非全屏界面
+透明： 全屏但无法遮盖下层界面</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>UI: 普通UI层级
+Loading: 加载界面
+Toast: 不可交互提示
+Dialog: 二次确认框</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -117,6 +156,18 @@
   </si>
   <si>
     <t>const</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>弹出</t>
+  </si>
+  <si>
+    <t>res://addons/LFFramework/Resource/Toast/Toast.tscn</t>
   </si>
 </sst>
 </file>
@@ -129,7 +180,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +331,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1275,7 +1331,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1394,6 +1450,26 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="9" spans="4:7">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1404,5 +1480,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Excel/#界面配置.xlsx
+++ b/Config/Excel/#界面配置.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -167,7 +167,19 @@
     <t>弹出</t>
   </si>
   <si>
-    <t>res://addons/LFFramework/Resource/Toast/Toast.tscn</t>
+    <t>res://addons/LFFramework/Resource/Toast/ToastPage.tscn</t>
+  </si>
+  <si>
+    <t>黑屏加载</t>
+  </si>
+  <si>
+    <t>BlackLoading</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>res://addons/LFFramework/Resource/Loading/BlackLoadingPage.tscn</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1343,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,7 +1352,7 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="52" customWidth="1"/>
+    <col min="7" max="7" width="75" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="26.125" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
@@ -1468,6 +1480,24 @@
       </c>
       <c r="G5" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="4:7">

--- a/Config/Excel/#界面配置.xlsx
+++ b/Config/Excel/#界面配置.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>res://addons/LFFramework/Resource/Loading/BlackLoadingPage.tscn</t>
+  </si>
+  <si>
+    <t>确认对话框</t>
+  </si>
+  <si>
+    <t>ConfirmDialog</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>res://addons/LFFramework/Resource/ConfirmDialog/ConfirmDialogPage.tscn</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,12 +1504,31 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="4:7">
